--- a/Base de Datos/Subida de Datos/Lugar/Lugar.xlsx
+++ b/Base de Datos/Subida de Datos/Lugar/Lugar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerb\OneDrive\Documents\java Cuarto\JJ\Lugar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62048F23-5800-40A2-AEB3-4B165D21551C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5B054-F766-4B70-98C0-A63DF4B488E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="214">
   <si>
     <t>id_lugar</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>CENTRO INFANTILE</t>
+  </si>
+  <si>
+    <t>SIN DATO</t>
   </si>
 </sst>
 </file>
@@ -981,15 +984,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>36</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>37</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>44</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>48</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>49</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>50</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>51</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>52</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>53</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>54</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>55</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>56</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>57</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>58</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>60</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>61</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>62</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>63</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>64</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>65</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>66</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>67</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>68</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>69</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>70</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>71</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>72</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>73</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>74</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>75</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>76</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>77</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>78</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>79</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>80</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>81</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>82</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>83</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>85</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>86</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>87</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>88</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>89</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>90</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>91</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>92</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>93</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>94</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>95</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>96</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>97</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>98</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>99</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>100</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>101</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>102</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>103</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>104</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>105</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>106</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>107</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>108</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>109</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>110</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>111</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>112</v>
       </c>
@@ -1744,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>113</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>114</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>115</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>116</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>117</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>118</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>119</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>120</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>121</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>122</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>123</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>124</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>125</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>126</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>127</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>128</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>129</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>130</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>131</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>132</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>133</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>134</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>135</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>136</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>137</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>138</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>139</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>140</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>141</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>142</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>143</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>144</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>145</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>146</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>147</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>148</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>149</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>150</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>151</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>152</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>153</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>154</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>155</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>156</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>157</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>158</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>159</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>160</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>161</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>162</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>163</v>
       </c>
@@ -2160,7 +2163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>164</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>165</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>166</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>167</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>168</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>169</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>170</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>171</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>172</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>173</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>174</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>175</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>176</v>
       </c>
@@ -2264,7 +2267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>177</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>178</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>179</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>3</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>180</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>181</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>182</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>183</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>184</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>12</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>185</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>186</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>187</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>188</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>189</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>190</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>191</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>3</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>192</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>193</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>194</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>195</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>196</v>
       </c>
@@ -2448,7 +2451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>197</v>
       </c>
@@ -2464,7 +2467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>198</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>199</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>200</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>201</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>202</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>203</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>204</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>205</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>206</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>207</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>171</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>14</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>208</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>209</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>210</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>211</v>
       </c>
@@ -2592,12 +2595,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>212</v>
       </c>
       <c r="C201" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>213</v>
+      </c>
+      <c r="C202" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
